--- a/Upload Data/Listening Exercise/Part 2/Test 1/Test1.xlsx
+++ b/Upload Data/Listening Exercise/Part 2/Test 1/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\PBL5-LPToeic\Upload Data\Listening Exercise\Part 2\Test 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816DE2B-475B-43BE-8705-39D2F9DBBBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7334D6-EE4D-4B12-9222-7AFCCCB5B311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Audio</t>
   </si>
   <si>
-    <t>Ảnh</t>
-  </si>
-  <si>
     <t>Đáp án A</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>Đáp án C</t>
   </si>
   <si>
-    <t>Đáp án D</t>
-  </si>
-  <si>
     <t>Đáp án</t>
   </si>
   <si>
@@ -63,36 +57,12 @@
     <t>(C)</t>
   </si>
   <si>
-    <t>(D)</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>(A) Có một số bàn ghế ở ngoài trời.
-(B) Có một vài người đang ngồi ở bàn.
-(C) Có những chiếc ô nhựa trên bàn.
-(D) Có rất nhiều hoa trong vườn.</t>
-  </si>
-  <si>
-    <t>(A) Người đàn ông đang sử dụng tuốc nơ vít để đóng đinh vào khung tòa nhà.
-(B) Người đàn ông đang đóng cái gì đó vào khung tòa nhà.
-(C) Người đàn ông đang làm khung bằng tay.
-(D) Người đàn ông đang đeo kính bảo hộ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(A) Họ đang nhìn nhau.
-(B) Người phụ nữ đang gõ máy tính.
-(C) Người đàn ông đang sử dụng máy tính.
-(D) Người đàn ông đang viết gì đó vào sổ ghi chú. </t>
-  </si>
-  <si>
     <t>cau2.mp3</t>
   </si>
   <si>
@@ -100,15 +70,6 @@
   </si>
   <si>
     <t>cau4.mp3</t>
-  </si>
-  <si>
-    <t>cau3.png</t>
-  </si>
-  <si>
-    <t>cau4.png</t>
-  </si>
-  <si>
-    <t>cau5.png</t>
   </si>
   <si>
     <t>cau5.mp3</t>
@@ -140,6 +101,42 @@
 (A) Đó là một yêu cầu khó khăn.
 (B) Đó là Katie Miller.
 (C) Hãy dọn chỗ trên bàn làm việc của bạn.</t>
+  </si>
+  <si>
+    <t>Transcript:
+Would you like to work together or separately?
+(A) Actually, I prefer working alone.
+(B) Let’s gather the company’s data.
+(C) Before next Friday.
+Bản dịch: 
+Bạn muốn làm việc cùng nhau hay riêng biệt?
+(A) Thực ra, tôi thích làm việc một mình hơn.
+(B) Hãy thu thập dữ liệu của công ty.
+(C) Trước hôm thứ Sáu tới.</t>
+  </si>
+  <si>
+    <t>Transcript:
+Have you introduced yourself to the new employee?
+(A) A new reward system will be introduced soon.
+(B) No, I’ve been too busy today.
+(C) Nice to meet you.
+Bản dịch:
+Bạn đã giới thiệu bản thân với nhân viên mới chưa?
+(A) Một hệ thống khen thưởng mới sẽ sớm được giới thiệu.
+(B) Không, hôm nay tôi quá bận.
+(C) Rất vui được gặp bạn.</t>
+  </si>
+  <si>
+    <t>Transcript:
+Where does this bus go to?
+(A) You need a transit card.
+(B) The bus stop is over there.
+(C) It is headed downtown.
+Bản dịch:
+Xe buýt này đi đến đâu?
+(A) Bạn cần thẻ chuyển tuyến.
+(B) Trạm xe buýt ở đằng kia.
+(C) Nó hướng về trung tâm thành phố.</t>
   </si>
 </sst>
 </file>
@@ -517,19 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="8.88671875" style="5"/>
-    <col min="8" max="8" width="49.77734375" customWidth="1"/>
+    <col min="1" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="49.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -545,136 +542,108 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
